--- a/data/trans_orig/P1414-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4863</v>
+        <v>4904</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003277643551859448</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01649887284086985</v>
+        <v>0.01663840469901468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -764,19 +764,19 @@
         <v>8220</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4021</v>
+        <v>4083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15483</v>
+        <v>15362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02861518218033312</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0139986749313083</v>
+        <v>0.01421387365616215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0539012670121048</v>
+        <v>0.05348011490167395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>9186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4893</v>
+        <v>4935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16937</v>
+        <v>18158</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01578330248402311</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008407891319690408</v>
+        <v>0.008480371365786357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02910278900251541</v>
+        <v>0.03119950383337513</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>293772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289875</v>
+        <v>289834</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>294738</v>
@@ -823,7 +823,7 @@
         <v>0.9967223564481406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9835011271591302</v>
+        <v>0.9833615953009853</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>279025</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271762</v>
+        <v>271883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283224</v>
+        <v>283162</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9713848178196669</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9460987329878953</v>
+        <v>0.9465198850983261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9860013250686916</v>
+        <v>0.9857861263438378</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>529</v>
@@ -856,19 +856,19 @@
         <v>572797</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>565046</v>
+        <v>563825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>577090</v>
+        <v>577048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9842166975159768</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9708972109974847</v>
+        <v>0.9688004961666234</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9915921086803097</v>
+        <v>0.9915196286342135</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4829</v>
+        <v>5964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002058568704099837</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009552018962163907</v>
+        <v>0.01179676272091305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -981,19 +981,19 @@
         <v>12672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7182</v>
+        <v>6391</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22222</v>
+        <v>21607</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02419410832596694</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01371161785447507</v>
+        <v>0.01220202326137905</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04242713981351893</v>
+        <v>0.04125284509986284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1002,19 +1002,19 @@
         <v>13713</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7396</v>
+        <v>7526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23400</v>
+        <v>23410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01332244529441096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007185946212166751</v>
+        <v>0.007311968076227617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02273411689984352</v>
+        <v>0.02274409168215582</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>504486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>500698</v>
+        <v>499563</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -1040,7 +1040,7 @@
         <v>0.9979414312959002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9904479810378363</v>
+        <v>0.9882032372790865</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1052,19 +1052,19 @@
         <v>511093</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>501543</v>
+        <v>502158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>516583</v>
+        <v>517374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9758058916740331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9575728601864811</v>
+        <v>0.9587471549001372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9862883821455249</v>
+        <v>0.987797976738621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -1073,19 +1073,19 @@
         <v>1015579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1005892</v>
+        <v>1005882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021896</v>
+        <v>1021766</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.986677554705589</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9772658831001565</v>
+        <v>0.9772559083178441</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9928140537878333</v>
+        <v>0.9926880319237724</v>
       </c>
     </row>
     <row r="9">
@@ -1190,19 +1190,19 @@
         <v>4959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11825</v>
+        <v>11012</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01454202841487696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005746438681702212</v>
+        <v>0.005743380304970892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03467650423554879</v>
+        <v>0.03229144635101436</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1211,19 +1211,19 @@
         <v>4959</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10895</v>
+        <v>12247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007456587138801245</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002925507522547434</v>
+        <v>0.002927054444705538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0163825111854406</v>
+        <v>0.01841419447982163</v>
       </c>
     </row>
     <row r="11">
@@ -1253,19 +1253,19 @@
         <v>336061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329195</v>
+        <v>330008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>339060</v>
+        <v>339061</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.985457971585123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9653234957644512</v>
+        <v>0.9677085536489857</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9942535613182978</v>
+        <v>0.9942566196950291</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>631</v>
@@ -1274,19 +1274,19 @@
         <v>660107</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>654171</v>
+        <v>652819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663120</v>
+        <v>663119</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9925434128611987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9836174888145595</v>
+        <v>0.9815858055201799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9970744924774526</v>
+        <v>0.9970729455552945</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5811</v>
+        <v>6527</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003062120476139645</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0155377467150436</v>
+        <v>0.0174533058938154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1399,19 +1399,19 @@
         <v>10917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5842</v>
+        <v>5856</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18994</v>
+        <v>18154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02806674658172879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01501902657182038</v>
+        <v>0.01505464624075024</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04883328680133893</v>
+        <v>0.04667466724920781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1420,19 +1420,19 @@
         <v>12062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6822</v>
+        <v>6862</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19907</v>
+        <v>20608</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01580973109588502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008941556335118067</v>
+        <v>0.00899436735142335</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02609267654076968</v>
+        <v>0.02701119991974566</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>372837</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>368171</v>
+        <v>367455</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -1458,7 +1458,7 @@
         <v>0.9969378795238604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9844622532849564</v>
+        <v>0.9825466941061837</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1470,19 +1470,19 @@
         <v>378034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369957</v>
+        <v>370797</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383109</v>
+        <v>383095</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9719332534182712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9511667131986615</v>
+        <v>0.953325332750792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9849809734281796</v>
+        <v>0.9849453537592497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -1491,19 +1491,19 @@
         <v>750871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>743026</v>
+        <v>742325</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756111</v>
+        <v>756071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.984190268904115</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9739073234592304</v>
+        <v>0.9729888000802546</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9910584436648819</v>
+        <v>0.9910056326485767</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>6730</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2943</v>
+        <v>2816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14968</v>
+        <v>13547</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03064991922712468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01340094945783949</v>
+        <v>0.01282607417204906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06816442672601286</v>
+        <v>0.06169361084859601</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1629,19 +1629,19 @@
         <v>6730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2984</v>
+        <v>2112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16302</v>
+        <v>14081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01557220187453829</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006904565627520023</v>
+        <v>0.004887520644274567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03771891997042914</v>
+        <v>0.0325789359241846</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>212861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204623</v>
+        <v>206044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216648</v>
+        <v>216775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9693500807728753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9318355732739869</v>
+        <v>0.938306389151404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9865990505421605</v>
+        <v>0.9871739258279515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>402</v>
@@ -1692,19 +1692,19 @@
         <v>425479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>415907</v>
+        <v>418128</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429225</v>
+        <v>430097</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9844277981254617</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9622810800295719</v>
+        <v>0.9674210640758154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9930954343724802</v>
+        <v>0.9951124793557254</v>
       </c>
     </row>
     <row r="18">
@@ -1809,19 +1809,19 @@
         <v>3015</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8038</v>
+        <v>8053</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0108424427834723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003543394328141192</v>
+        <v>0.003561377337630915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02890315407254844</v>
+        <v>0.02895615563625296</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1830,19 +1830,19 @@
         <v>3015</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9075</v>
+        <v>8075</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005461626909695137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00181015824094224</v>
+        <v>0.001791032363261969</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01643827681954718</v>
+        <v>0.01462717119741972</v>
       </c>
     </row>
     <row r="20">
@@ -1872,19 +1872,19 @@
         <v>275081</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270058</v>
+        <v>270043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277111</v>
+        <v>277106</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9891575572165276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9710968459274514</v>
+        <v>0.971043844363747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9964566056718588</v>
+        <v>0.996438622662369</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -1893,19 +1893,19 @@
         <v>549062</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>543002</v>
+        <v>544002</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551078</v>
+        <v>551088</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9945383730903049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9835617231804528</v>
+        <v>0.9853728288025803</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9981898417590577</v>
+        <v>0.9982089676367381</v>
       </c>
     </row>
     <row r="21">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6385</v>
+        <v>6329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003142705112933114</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009633098290025864</v>
+        <v>0.009548345023415785</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2018,19 +2018,19 @@
         <v>9977</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4815</v>
+        <v>4994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18902</v>
+        <v>19413</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01437896111953926</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006940093280256409</v>
+        <v>0.007197759618878558</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02724267448261305</v>
+        <v>0.02797788596718936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2039,19 +2039,19 @@
         <v>12060</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6202</v>
+        <v>6148</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21423</v>
+        <v>20387</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008889479353631961</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004571888079798768</v>
+        <v>0.004531659108997169</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01579109072137626</v>
+        <v>0.01502756413615296</v>
       </c>
     </row>
     <row r="23">
@@ -2068,7 +2068,7 @@
         <v>660705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>656403</v>
+        <v>656459</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -2077,7 +2077,7 @@
         <v>0.9968572948870669</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9903669017099742</v>
+        <v>0.9904516549765843</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2089,19 +2089,19 @@
         <v>683876</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>674951</v>
+        <v>674440</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>689038</v>
+        <v>688859</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9856210388804607</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9727573255173869</v>
+        <v>0.972022114032811</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9930599067197435</v>
+        <v>0.9928022403811214</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1243</v>
@@ -2110,19 +2110,19 @@
         <v>1344581</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1335218</v>
+        <v>1336254</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1350439</v>
+        <v>1350493</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9911105206463681</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9842089092786237</v>
+        <v>0.9849724358638471</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9954281119202012</v>
+        <v>0.9954683408910028</v>
       </c>
     </row>
     <row r="24">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7612</v>
+        <v>7087</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002758409109937672</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009770703892949758</v>
+        <v>0.009097012633623183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2235,19 +2235,19 @@
         <v>36301</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25132</v>
+        <v>26533</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49310</v>
+        <v>51528</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04418245569565381</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03058847405006327</v>
+        <v>0.03229418959051185</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06001604153912531</v>
+        <v>0.06271520267440792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2256,19 +2256,19 @@
         <v>38450</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27709</v>
+        <v>26355</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52638</v>
+        <v>50931</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02402051651564663</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01731067232880099</v>
+        <v>0.01646486993931017</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03288429286053888</v>
+        <v>0.03181755364798702</v>
       </c>
     </row>
     <row r="26">
@@ -2285,7 +2285,7 @@
         <v>776949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>771486</v>
+        <v>772011</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>779098</v>
@@ -2294,7 +2294,7 @@
         <v>0.9972415908900624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9902292961070505</v>
+        <v>0.9909029873663783</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2306,19 +2306,19 @@
         <v>785310</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>772301</v>
+        <v>770083</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>796479</v>
+        <v>795078</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9558175443043462</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9399839584608748</v>
+        <v>0.9372847973255923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9694115259499368</v>
+        <v>0.9677058104094884</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1437</v>
@@ -2327,19 +2327,19 @@
         <v>1562259</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1548071</v>
+        <v>1549778</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1573000</v>
+        <v>1574354</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9759794834843534</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9671157071394609</v>
+        <v>0.968182446352013</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9826893276711988</v>
+        <v>0.98353513006069</v>
       </c>
     </row>
     <row r="27">
@@ -2431,19 +2431,19 @@
         <v>7384</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14849</v>
+        <v>15378</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002154765960687546</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0009179831695049705</v>
+        <v>0.0009172648221282471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00433333070919853</v>
+        <v>0.004487461141664699</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>86</v>
@@ -2452,19 +2452,19 @@
         <v>92791</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74157</v>
+        <v>73392</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>112555</v>
+        <v>114129</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02610782992261705</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02086508708477759</v>
+        <v>0.02064985319876697</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03166870819318109</v>
+        <v>0.03211161865515254</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>93</v>
@@ -2473,19 +2473,19 @@
         <v>100175</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>80711</v>
+        <v>80016</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>122539</v>
+        <v>121617</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01434978620531129</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01156168232511557</v>
+        <v>0.01146217686593146</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01755341501983893</v>
+        <v>0.01742135899156947</v>
       </c>
     </row>
     <row r="29">
@@ -2502,19 +2502,19 @@
         <v>3419395</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3411930</v>
+        <v>3411401</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3423633</v>
+        <v>3423636</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9978452340393125</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9956666692908015</v>
+        <v>0.9955125388583318</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.999082016830495</v>
+        <v>0.9990827351778718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3209</v>
@@ -2523,19 +2523,19 @@
         <v>3461341</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3441577</v>
+        <v>3440003</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3479975</v>
+        <v>3480740</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9738921700773829</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9683312918068189</v>
+        <v>0.9678883813448472</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9791349129152223</v>
+        <v>0.979350146801233</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6411</v>
@@ -2544,19 +2544,19 @@
         <v>6880736</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6858372</v>
+        <v>6859294</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6900200</v>
+        <v>6900895</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9856502137946888</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9824465849801606</v>
+        <v>0.9825786410084305</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9884383176748843</v>
+        <v>0.9885378231340685</v>
       </c>
     </row>
     <row r="30">
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7064</v>
+        <v>7166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006903860049922</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02404614196630633</v>
+        <v>0.02439339994814353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2913,19 +2913,19 @@
         <v>11968</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6182</v>
+        <v>6719</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19473</v>
+        <v>19903</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04145574901849555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02141415768271321</v>
+        <v>0.02327290034122812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06744918736506046</v>
+        <v>0.06893911011806605</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2934,19 +2934,19 @@
         <v>13996</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7853</v>
+        <v>7604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23110</v>
+        <v>22510</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02402978368497851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01348208360129597</v>
+        <v>0.01305407301182767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03967554797358761</v>
+        <v>0.03864530829962863</v>
       </c>
     </row>
     <row r="5">
@@ -2963,7 +2963,7 @@
         <v>291733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286697</v>
+        <v>286595</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -2972,7 +2972,7 @@
         <v>0.9930961399500779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9759538580336936</v>
+        <v>0.9756066000518566</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2984,19 +2984,19 @@
         <v>276735</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269230</v>
+        <v>268800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282521</v>
+        <v>281984</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9585442509815044</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9325508126349396</v>
+        <v>0.9310608898819339</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9785858423172868</v>
+        <v>0.9767270996587719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>529</v>
@@ -3005,19 +3005,19 @@
         <v>568468</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>559354</v>
+        <v>559954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574611</v>
+        <v>574860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9759702163150215</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9603244520264124</v>
+        <v>0.9613546917003714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9865179163987041</v>
+        <v>0.9869459269881725</v>
       </c>
     </row>
     <row r="6">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6509</v>
+        <v>5829</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002146862490294372</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01295142214222763</v>
+        <v>0.0115990369159339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3130,19 +3130,19 @@
         <v>15184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8286</v>
+        <v>8659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23786</v>
+        <v>24073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02902876775075951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01584009332530301</v>
+        <v>0.01655289578359648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04547349808920365</v>
+        <v>0.04602036106785072</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -3151,19 +3151,19 @@
         <v>16263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8945</v>
+        <v>8696</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26167</v>
+        <v>25994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01585657456287781</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008720865806554097</v>
+        <v>0.00847831617382486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02551271624558012</v>
+        <v>0.02534417276284169</v>
       </c>
     </row>
     <row r="8">
@@ -3180,7 +3180,7 @@
         <v>501496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>496066</v>
+        <v>496746</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -3189,7 +3189,7 @@
         <v>0.9978531375097056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9870485778577723</v>
+        <v>0.9884009630840664</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3201,19 +3201,19 @@
         <v>507900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>499298</v>
+        <v>499011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>514798</v>
+        <v>514425</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9709712322492405</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9545265019107974</v>
+        <v>0.9539796389321493</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9841599066746981</v>
+        <v>0.9834471042164037</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>944</v>
@@ -3222,19 +3222,19 @@
         <v>1009396</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>999492</v>
+        <v>999665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1016714</v>
+        <v>1016963</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9841434254371222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9744872837544197</v>
+        <v>0.9746558272371585</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9912791341934457</v>
+        <v>0.9915216838261752</v>
       </c>
     </row>
     <row r="9">
@@ -3339,19 +3339,19 @@
         <v>4787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10927</v>
+        <v>10958</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01423504396528848</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005006863380945432</v>
+        <v>0.004991082612245595</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03249074805197694</v>
+        <v>0.03258289816006675</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -3360,19 +3360,19 @@
         <v>4787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1820</v>
+        <v>1698</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10128</v>
+        <v>10103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007310373342462975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002778968618729172</v>
+        <v>0.002593377495079244</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01546489113776816</v>
+        <v>0.01542695384714472</v>
       </c>
     </row>
     <row r="11">
@@ -3402,19 +3402,19 @@
         <v>331522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325382</v>
+        <v>325351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334625</v>
+        <v>334630</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9857649560347115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.967509251948023</v>
+        <v>0.9674171018399329</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9949931366190546</v>
+        <v>0.9950089173877544</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>662</v>
@@ -3423,19 +3423,19 @@
         <v>650087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644746</v>
+        <v>644771</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653054</v>
+        <v>653176</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.992689626657537</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9845351088622321</v>
+        <v>0.9845730461528553</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972210313812708</v>
+        <v>0.9974066225049207</v>
       </c>
     </row>
     <row r="12">
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5680</v>
+        <v>4867</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00261119651202127</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01535219157500079</v>
+        <v>0.01315435363480433</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3548,19 +3548,19 @@
         <v>8829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4173</v>
+        <v>4141</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16433</v>
+        <v>16894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02279639375579228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01077459216072774</v>
+        <v>0.01069266849948015</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04243122895382658</v>
+        <v>0.04362262794362193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3569,19 +3569,19 @@
         <v>9795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4814</v>
+        <v>5100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18104</v>
+        <v>18367</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01293462304431772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006356726847732261</v>
+        <v>0.006734495011860588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02390822791483961</v>
+        <v>0.02425487253391866</v>
       </c>
     </row>
     <row r="14">
@@ -3598,7 +3598,7 @@
         <v>368998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364284</v>
+        <v>365097</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -3607,7 +3607,7 @@
         <v>0.9973888034879788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9846478084249997</v>
+        <v>0.9868456463651958</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3619,19 +3619,19 @@
         <v>378454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>370850</v>
+        <v>370389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383110</v>
+        <v>383142</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9772036062442078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9575687710461734</v>
+        <v>0.9563773720563782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9892254078392723</v>
+        <v>0.9893073315005199</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>703</v>
@@ -3640,19 +3640,19 @@
         <v>747452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739143</v>
+        <v>738880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>752433</v>
+        <v>752147</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870653769556823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9760917720851604</v>
+        <v>0.9757451274660816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9936432731522677</v>
+        <v>0.9932655049881395</v>
       </c>
     </row>
     <row r="15">
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6814</v>
+        <v>6722</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009163896147610725</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03225814978615116</v>
+        <v>0.03182582547394371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3765,19 +3765,19 @@
         <v>13395</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7172</v>
+        <v>7446</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21520</v>
+        <v>22409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06127795886407011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03281270182862341</v>
+        <v>0.03406421298402811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09844982507135908</v>
+        <v>0.1025179911192087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -3786,19 +3786,19 @@
         <v>15330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8961</v>
+        <v>8970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24505</v>
+        <v>24702</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03566749001545734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02084828981548577</v>
+        <v>0.02087085088853428</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05701487552643771</v>
+        <v>0.05747228227458841</v>
       </c>
     </row>
     <row r="17">
@@ -3815,7 +3815,7 @@
         <v>209285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204407</v>
+        <v>204499</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -3824,7 +3824,7 @@
         <v>0.9908361038523893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.967741850213849</v>
+        <v>0.9681741745260563</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3836,19 +3836,19 @@
         <v>205192</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197067</v>
+        <v>196178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211415</v>
+        <v>211141</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9387220411359298</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9015501749286408</v>
+        <v>0.8974820088807913</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9671872981713765</v>
+        <v>0.9659357870159719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>420</v>
@@ -3857,19 +3857,19 @@
         <v>414478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405303</v>
+        <v>405106</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>420847</v>
+        <v>420838</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9643325099845427</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9429851244735623</v>
+        <v>0.9425277177254121</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9791517101845143</v>
+        <v>0.9791291491114658</v>
       </c>
     </row>
     <row r="18">
@@ -3974,19 +3974,19 @@
         <v>6346</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3033</v>
+        <v>3041</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12941</v>
+        <v>13015</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02323492317016134</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01110369935634154</v>
+        <v>0.01113462917224692</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04738262255242542</v>
+        <v>0.04765496640476478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3995,19 +3995,19 @@
         <v>6346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2113</v>
+        <v>2696</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12779</v>
+        <v>12815</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01183393578276015</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003940710858913238</v>
+        <v>0.005027245225826667</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02383120565103003</v>
+        <v>0.02389703988745234</v>
       </c>
     </row>
     <row r="20">
@@ -4037,19 +4037,19 @@
         <v>266769</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260174</v>
+        <v>260100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270082</v>
+        <v>270074</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9767650768298387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9526173774475746</v>
+        <v>0.9523450335952356</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9888963006436585</v>
+        <v>0.9888653708277532</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>516</v>
@@ -4058,19 +4058,19 @@
         <v>529892</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>523459</v>
+        <v>523423</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>534125</v>
+        <v>533542</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9881660642172398</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9761687943489702</v>
+        <v>0.9761029601125478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9960592891410868</v>
+        <v>0.9949727547741763</v>
       </c>
     </row>
     <row r="21">
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5983</v>
+        <v>5977</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00181831179134014</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009113190833415791</v>
+        <v>0.00910310648246606</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4183,19 +4183,19 @@
         <v>12206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6528</v>
+        <v>6487</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21139</v>
+        <v>20412</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01765680812670001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009443476558229082</v>
+        <v>0.009383367623113634</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03057866993755334</v>
+        <v>0.029527094875708</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -4204,19 +4204,19 @@
         <v>13400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7588</v>
+        <v>7460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23416</v>
+        <v>21636</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009941649897506689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005629694451053519</v>
+        <v>0.005534752541657972</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01737318242844757</v>
+        <v>0.01605210812483241</v>
       </c>
     </row>
     <row r="23">
@@ -4233,7 +4233,7 @@
         <v>655364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>650575</v>
+        <v>650581</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>656558</v>
@@ -4242,7 +4242,7 @@
         <v>0.9981816882086598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9908868091665842</v>
+        <v>0.9908968935175341</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4254,19 +4254,19 @@
         <v>679088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>670155</v>
+        <v>670882</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>684766</v>
+        <v>684807</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9823431918733</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9694213300624465</v>
+        <v>0.970472905124292</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9905565234417709</v>
+        <v>0.9906166323768864</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1214</v>
@@ -4275,19 +4275,19 @@
         <v>1334452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1324436</v>
+        <v>1326216</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340264</v>
+        <v>1340392</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9900583501024933</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9826268175715522</v>
+        <v>0.9839478918751675</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9943703055489465</v>
+        <v>0.994465247458342</v>
       </c>
     </row>
     <row r="24">
@@ -4379,19 +4379,19 @@
         <v>6845</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2152</v>
+        <v>2637</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13529</v>
+        <v>14464</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008791977545187745</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002763711127961631</v>
+        <v>0.003387424795044951</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01737697580600029</v>
+        <v>0.01857795229661727</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -4400,19 +4400,19 @@
         <v>52353</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39838</v>
+        <v>38499</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68648</v>
+        <v>68045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0633683165114217</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04822062139747487</v>
+        <v>0.04659910603009978</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08309215527873715</v>
+        <v>0.0823617615683488</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -4421,19 +4421,19 @@
         <v>59198</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44599</v>
+        <v>44773</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77273</v>
+        <v>75586</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03688929511963457</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0277921531964073</v>
+        <v>0.02790051382377061</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04815267302276533</v>
+        <v>0.04710139853743835</v>
       </c>
     </row>
     <row r="26">
@@ -4450,19 +4450,19 @@
         <v>771738</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>765054</v>
+        <v>764119</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776431</v>
+        <v>775946</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9912080224548122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9826230241939997</v>
+        <v>0.9814220477033826</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9972362888720384</v>
+        <v>0.9966125752049551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>709</v>
@@ -4471,19 +4471,19 @@
         <v>773814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>757519</v>
+        <v>758122</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>786329</v>
+        <v>787668</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9366316834885783</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9169078447212629</v>
+        <v>0.917638238431651</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.951779378602525</v>
+        <v>0.9534008939699002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1453</v>
@@ -4492,19 +4492,19 @@
         <v>1545552</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1527477</v>
+        <v>1529164</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1560151</v>
+        <v>1559977</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9631107048803654</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9518473269772346</v>
+        <v>0.9528986014625613</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9722078468035926</v>
+        <v>0.9720994861762292</v>
       </c>
     </row>
     <row r="27">
@@ -4596,19 +4596,19 @@
         <v>14048</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8055</v>
+        <v>8155</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24409</v>
+        <v>24824</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004138586461645745</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00237301787293677</v>
+        <v>0.002402462093083077</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007190930876288585</v>
+        <v>0.00731319194410314</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>115</v>
@@ -4617,19 +4617,19 @@
         <v>125068</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>104032</v>
+        <v>104376</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147255</v>
+        <v>150003</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03528471124228898</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02934984007914337</v>
+        <v>0.02944684492822989</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04154414927234137</v>
+        <v>0.04231941153435369</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>128</v>
@@ -4638,19 +4638,19 @@
         <v>139116</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>115955</v>
+        <v>118088</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>164383</v>
+        <v>165114</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02004872628620505</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01671081536291657</v>
+        <v>0.01701826085527816</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0236901268061255</v>
+        <v>0.02379546228855667</v>
       </c>
     </row>
     <row r="29">
@@ -4667,19 +4667,19 @@
         <v>3380302</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3369941</v>
+        <v>3369526</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3386295</v>
+        <v>3386195</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9958614135383542</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9928090691237115</v>
+        <v>0.9926868080558969</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9976269821270634</v>
+        <v>0.997597537906917</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3223</v>
@@ -4688,19 +4688,19 @@
         <v>3419474</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3397287</v>
+        <v>3394539</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3440510</v>
+        <v>3440166</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9647152887577111</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9584558507276586</v>
+        <v>0.9576805884656463</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9706501599208567</v>
+        <v>0.9705531550717701</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6441</v>
@@ -4709,19 +4709,19 @@
         <v>6799776</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6774509</v>
+        <v>6773778</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6822937</v>
+        <v>6820804</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.979951273713795</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9763098731938742</v>
+        <v>0.9762045377114433</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9832891846370834</v>
+        <v>0.9829817391447219</v>
       </c>
     </row>
     <row r="30">
@@ -5060,16 +5060,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3353</v>
+        <v>3837</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002094137476345281</v>
+        <v>0.002094137476345282</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01051728207947273</v>
+        <v>0.01203559119862415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -5078,19 +5078,19 @@
         <v>12838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8839</v>
+        <v>8407</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18916</v>
+        <v>18573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0406181815074743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02796592390497684</v>
+        <v>0.02660063400779879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05985042309766984</v>
+        <v>0.0587629896145006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -5099,19 +5099,19 @@
         <v>13506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8944</v>
+        <v>9179</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19605</v>
+        <v>19803</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02127167806131525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01408705948283332</v>
+        <v>0.01445763526152533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03087874559611098</v>
+        <v>0.03119096768366054</v>
       </c>
     </row>
     <row r="5">
@@ -5128,16 +5128,16 @@
         <v>318177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315492</v>
+        <v>315008</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9979058625236548</v>
+        <v>0.997905862523655</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.989482717920527</v>
+        <v>0.9879644088013756</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5149,19 +5149,19 @@
         <v>303223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297145</v>
+        <v>297488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307222</v>
+        <v>307654</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9593818184925257</v>
+        <v>0.9593818184925258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9401495769023299</v>
+        <v>0.9412370103854996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9720340760950231</v>
+        <v>0.9733993659922012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>842</v>
@@ -5170,19 +5170,19 @@
         <v>621400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615301</v>
+        <v>615103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625962</v>
+        <v>625727</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9787283219386848</v>
+        <v>0.978728321938685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9691212544038892</v>
+        <v>0.968809032316338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9859129405171667</v>
+        <v>0.9855423647384746</v>
       </c>
     </row>
     <row r="6">
@@ -5287,19 +5287,19 @@
         <v>19961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13594</v>
+        <v>13473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27975</v>
+        <v>28134</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0368787464962607</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02511568709280069</v>
+        <v>0.02489089871849246</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05168325373653002</v>
+        <v>0.05197812638011618</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -5308,19 +5308,19 @@
         <v>19961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13773</v>
+        <v>13895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27265</v>
+        <v>28361</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01863930056623303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01286047728134566</v>
+        <v>0.01297438867754343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02545873559700007</v>
+        <v>0.02648280956169762</v>
       </c>
     </row>
     <row r="8">
@@ -5350,19 +5350,19 @@
         <v>521310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513296</v>
+        <v>513137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>527677</v>
+        <v>527798</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9631212535037394</v>
+        <v>0.9631212535037393</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9483167462634705</v>
+        <v>0.948021873619884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9748843129071995</v>
+        <v>0.9751091012815082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1059</v>
@@ -5371,19 +5371,19 @@
         <v>1050970</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1043666</v>
+        <v>1042570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1057158</v>
+        <v>1057036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.981360699433767</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.974541264403</v>
+        <v>0.9735171904383022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9871395227186542</v>
+        <v>0.9870256113224565</v>
       </c>
     </row>
     <row r="9">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3641</v>
+        <v>3582</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002747801831386659</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01152091192974734</v>
+        <v>0.01133415987237819</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5496,19 +5496,19 @@
         <v>5344</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2484</v>
+        <v>2415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9773</v>
+        <v>10307</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01499483110639917</v>
+        <v>0.01499483110639916</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006969400840300627</v>
+        <v>0.006775300242625597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02742262491355831</v>
+        <v>0.02892175652813812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5517,19 +5517,19 @@
         <v>6212</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11218</v>
+        <v>11911</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009239141053255495</v>
+        <v>0.009239141053255493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00488350149000515</v>
+        <v>0.004885645365475613</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01668398036160602</v>
+        <v>0.01771545278145498</v>
       </c>
     </row>
     <row r="11">
@@ -5546,7 +5546,7 @@
         <v>315125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312352</v>
+        <v>312411</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>315993</v>
@@ -5555,7 +5555,7 @@
         <v>0.9972521981686132</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9884790880702539</v>
+        <v>0.9886658401276218</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5567,19 +5567,19 @@
         <v>351037</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>346608</v>
+        <v>346074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>353897</v>
+        <v>353966</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9850051688936009</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9725773750864418</v>
+        <v>0.9710782434718627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9930305991596995</v>
+        <v>0.9932246997573747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>886</v>
@@ -5588,19 +5588,19 @@
         <v>666163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>661157</v>
+        <v>660464</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>669091</v>
+        <v>669090</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9907608589467447</v>
+        <v>0.9907608589467445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9833160196383939</v>
+        <v>0.982284547218545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995116498509995</v>
+        <v>0.9951143546345242</v>
       </c>
     </row>
     <row r="12">
@@ -5692,19 +5692,19 @@
         <v>3768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11963</v>
+        <v>14758</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.010113782131137</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001569542343235428</v>
+        <v>0.001624830526174133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03211086856377651</v>
+        <v>0.03961386087017317</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5713,19 +5713,19 @@
         <v>9199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5503</v>
+        <v>5275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14826</v>
+        <v>14695</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02179956624174221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01304055382152858</v>
+        <v>0.01250066426299788</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03513534363381794</v>
+        <v>0.03482551528502256</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -5734,19 +5734,19 @@
         <v>12967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8020</v>
+        <v>8111</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22030</v>
+        <v>21867</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01631998557875403</v>
+        <v>0.01631998557875402</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0100946512940221</v>
+        <v>0.01020842352328393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02772773926765506</v>
+        <v>0.02752209233709309</v>
       </c>
     </row>
     <row r="14">
@@ -5763,19 +5763,19 @@
         <v>368790</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360595</v>
+        <v>357800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371973</v>
+        <v>371953</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9898862178688632</v>
+        <v>0.989886217868863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9678891314362233</v>
+        <v>0.9603861391298274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9984304576567645</v>
+        <v>0.9983751694738261</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>583</v>
@@ -5784,19 +5784,19 @@
         <v>412762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407135</v>
+        <v>407266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>416458</v>
+        <v>416686</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9782004337582579</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9648646563661823</v>
+        <v>0.965174484714977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9869594461784715</v>
+        <v>0.9874993357370021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>871</v>
@@ -5805,19 +5805,19 @@
         <v>781553</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>772490</v>
+        <v>772653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>786500</v>
+        <v>786409</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9836800144212461</v>
+        <v>0.983680014421246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9722722607323452</v>
+        <v>0.9724779076629068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.989905348705978</v>
+        <v>0.9897915764767161</v>
       </c>
     </row>
     <row r="15">
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3040</v>
+        <v>2913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002539641918276061</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01482463821611073</v>
+        <v>0.01420419058295531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -5930,19 +5930,19 @@
         <v>11930</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8267</v>
+        <v>8352</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16736</v>
+        <v>17002</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05283131723134432</v>
+        <v>0.05283131723134433</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03661084453643704</v>
+        <v>0.03698704829725847</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07411408499145229</v>
+        <v>0.07528924905255595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -5951,19 +5951,19 @@
         <v>12451</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8707</v>
+        <v>8406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17356</v>
+        <v>17538</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02889555929955015</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02020710782655169</v>
+        <v>0.01950802837627913</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04027741350810523</v>
+        <v>0.04069998106867233</v>
       </c>
     </row>
     <row r="17">
@@ -5980,7 +5980,7 @@
         <v>204563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202044</v>
+        <v>202171</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205084</v>
@@ -5989,7 +5989,7 @@
         <v>0.997460358081724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9851753617838894</v>
+        <v>0.9857958094170503</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6001,19 +6001,19 @@
         <v>213890</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209084</v>
+        <v>208818</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217553</v>
+        <v>217468</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9471686827686557</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9258859150085477</v>
+        <v>0.9247107509474439</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9633891554635627</v>
+        <v>0.9630129517027415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>736</v>
@@ -6022,19 +6022,19 @@
         <v>418453</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413548</v>
+        <v>413366</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422197</v>
+        <v>422498</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9711044407004499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9597225864918949</v>
+        <v>0.9593000189313278</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9797928921734482</v>
+        <v>0.9804919716237208</v>
       </c>
     </row>
     <row r="18">
@@ -6126,19 +6126,19 @@
         <v>1732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5387</v>
+        <v>5113</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006397875216643949</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001697703203423799</v>
+        <v>0.001641799158518929</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01990009280536056</v>
+        <v>0.01888774447901101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6147,19 +6147,19 @@
         <v>8863</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5186</v>
+        <v>5542</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13804</v>
+        <v>14288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03376236299032358</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01975657742051163</v>
+        <v>0.02111129532662461</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05258169464772506</v>
+        <v>0.05442735608656715</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -6168,19 +6168,19 @@
         <v>10595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6487</v>
+        <v>6751</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15501</v>
+        <v>16118</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01987002272534931</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01216633307439932</v>
+        <v>0.01266147598750412</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02907076566381302</v>
+        <v>0.03022698534672374</v>
       </c>
     </row>
     <row r="20">
@@ -6197,19 +6197,19 @@
         <v>268975</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265320</v>
+        <v>265594</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270247</v>
+        <v>270263</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9936021247833562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9800999071946392</v>
+        <v>0.9811122555209888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9983022967965763</v>
+        <v>0.998358200841481</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>440</v>
@@ -6218,19 +6218,19 @@
         <v>253656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248715</v>
+        <v>248231</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257333</v>
+        <v>256977</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9662376370096765</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.947418305352275</v>
+        <v>0.9455726439134329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9802434225794885</v>
+        <v>0.9788887046733754</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>808</v>
@@ -6239,19 +6239,19 @@
         <v>522631</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>517725</v>
+        <v>517108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526739</v>
+        <v>526475</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9801299772746506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9709292343361865</v>
+        <v>0.9697730146532764</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9878336669256007</v>
+        <v>0.9873385240124961</v>
       </c>
     </row>
     <row r="21">
@@ -6343,19 +6343,19 @@
         <v>5091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1909</v>
+        <v>1767</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11532</v>
+        <v>11370</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007127701836346589</v>
+        <v>0.007127701836346588</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002672009663798339</v>
+        <v>0.002473622243822454</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01614374242757667</v>
+        <v>0.01591664096209966</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -6364,19 +6364,19 @@
         <v>35887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27095</v>
+        <v>26848</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45930</v>
+        <v>46813</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04694650382090301</v>
+        <v>0.046946503820903</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0354442772033819</v>
+        <v>0.03512127333873636</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06008474620251754</v>
+        <v>0.0612387624721053</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -6385,19 +6385,19 @@
         <v>40979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31251</v>
+        <v>31544</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53568</v>
+        <v>52585</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02771166355271221</v>
+        <v>0.0277116635527122</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02113329330944502</v>
+        <v>0.02133131691127938</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03622525674068222</v>
+        <v>0.03556071732510681</v>
       </c>
     </row>
     <row r="23">
@@ -6414,19 +6414,19 @@
         <v>709233</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>702792</v>
+        <v>702954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>712415</v>
+        <v>712557</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9928722981636534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9838562575724236</v>
+        <v>0.9840833590379005</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9973279903362016</v>
+        <v>0.9975263777561778</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>897</v>
@@ -6435,19 +6435,19 @@
         <v>728539</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>718496</v>
+        <v>717613</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>737331</v>
+        <v>737578</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9530534961790972</v>
+        <v>0.9530534961790971</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9399152537974826</v>
+        <v>0.9387612375278948</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9645557227966185</v>
+        <v>0.9648787266612638</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1486</v>
@@ -6456,19 +6456,19 @@
         <v>1437771</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1425182</v>
+        <v>1426165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1447499</v>
+        <v>1447206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9722883364472876</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9637747432593178</v>
+        <v>0.9644392826748929</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9788667066905549</v>
+        <v>0.9786686830887205</v>
       </c>
     </row>
     <row r="24">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7416</v>
+        <v>8038</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002655100512356743</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009292996079556585</v>
+        <v>0.01007184852153934</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -6581,19 +6581,19 @@
         <v>50919</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40037</v>
+        <v>39942</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63320</v>
+        <v>64455</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06150995768782432</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04836448508831077</v>
+        <v>0.04824926562511135</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07649066067312113</v>
+        <v>0.07786054874934827</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -6602,19 +6602,19 @@
         <v>53038</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42059</v>
+        <v>42225</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65803</v>
+        <v>66632</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03262095153778589</v>
+        <v>0.0326209515377859</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0258682775821074</v>
+        <v>0.02597020403579189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04047220572900438</v>
+        <v>0.04098205813963098</v>
       </c>
     </row>
     <row r="26">
@@ -6631,7 +6631,7 @@
         <v>795953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>790656</v>
+        <v>790034</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>798072</v>
@@ -6640,7 +6640,7 @@
         <v>0.9973448994876433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9907070039204442</v>
+        <v>0.9899281514784607</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6652,19 +6652,19 @@
         <v>776901</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>764500</v>
+        <v>763365</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>787783</v>
+        <v>787878</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9384900423121758</v>
+        <v>0.9384900423121757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9235093393268788</v>
+        <v>0.9221394512506518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9516355149116892</v>
+        <v>0.9517507343748887</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1743</v>
@@ -6673,19 +6673,19 @@
         <v>1572854</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1560089</v>
+        <v>1559260</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1583833</v>
+        <v>1583667</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.967379048462214</v>
+        <v>0.9673790484622141</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9595277942709949</v>
+        <v>0.959017941860368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9741317224178924</v>
+        <v>0.974029795964208</v>
       </c>
     </row>
     <row r="27">
@@ -6777,19 +6777,19 @@
         <v>14767</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8636</v>
+        <v>7898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25411</v>
+        <v>24634</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.004188988346218044</v>
+        <v>0.004188988346218045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0024497651310508</v>
+        <v>0.002240306028318301</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.007208260936682797</v>
+        <v>0.006987857390882377</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>256</v>
@@ -6798,19 +6798,19 @@
         <v>154942</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>137156</v>
+        <v>137597</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>175055</v>
+        <v>175771</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04169289001399736</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03690687715610168</v>
+        <v>0.03702557464572784</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04710526989040408</v>
+        <v>0.04729783000905444</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>272</v>
@@ -6819,19 +6819,19 @@
         <v>169709</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>149596</v>
+        <v>150343</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>193247</v>
+        <v>190690</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02343557949299121</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02065809261121276</v>
+        <v>0.02076133452034648</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02668600576319236</v>
+        <v>0.02633293895339732</v>
       </c>
     </row>
     <row r="29">
@@ -6848,19 +6848,19 @@
         <v>3510476</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3499832</v>
+        <v>3500609</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3516607</v>
+        <v>3517345</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9958110116537818</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9927917390633172</v>
+        <v>0.9930121426091176</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9975502348689492</v>
+        <v>0.9977596939716816</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5079</v>
@@ -6869,19 +6869,19 @@
         <v>3561318</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3541205</v>
+        <v>3540489</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3579104</v>
+        <v>3578663</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9583071099860027</v>
+        <v>0.9583071099860028</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9528947301095958</v>
+        <v>0.9527021699909458</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9630931228438984</v>
+        <v>0.9629744253542721</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8431</v>
@@ -6890,19 +6890,19 @@
         <v>7071794</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7048256</v>
+        <v>7050813</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7091907</v>
+        <v>7091160</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9765644205070088</v>
+        <v>0.9765644205070089</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9733139942368076</v>
+        <v>0.9736670610466025</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.979341907388787</v>
+        <v>0.9792386654796537</v>
       </c>
     </row>
     <row r="30">
